--- a/Scripts/obs e regras/corresp.xlsx
+++ b/Scripts/obs e regras/corresp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="460" windowWidth="15780" windowHeight="13100"/>
+    <workbookView xWindow="10120" yWindow="460" windowWidth="17200" windowHeight="13100"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>Encontrada</t>
   </si>
@@ -35,15 +35,27 @@
     <t>Correspondência</t>
   </si>
   <si>
+    <t>Ingressantes</t>
+  </si>
+  <si>
     <t>Alunos Ingressantes</t>
   </si>
   <si>
     <t>Pergunta</t>
   </si>
   <si>
+    <t>Já matriculados</t>
+  </si>
+  <si>
     <t>Alunos matriculados na &lt;IES&gt;</t>
   </si>
   <si>
+    <t>Matriculados em outra IES</t>
+  </si>
+  <si>
+    <t>Trancados/Desistentes</t>
+  </si>
+  <si>
     <t>Aluno trancado/desistente na &lt;IES&gt;</t>
   </si>
   <si>
@@ -56,12 +68,30 @@
     <t>, desde que tenha cursado até metade do curso na faculdade de origem</t>
   </si>
   <si>
+    <t>metade do curso</t>
+  </si>
+  <si>
+    <t>avaliado internamente</t>
+  </si>
+  <si>
     <t>Dependente</t>
   </si>
   <si>
     <t>. Cada caso será avaliado internamente pela &lt;IES&gt;</t>
   </si>
   <si>
+    <t>mínimo 3</t>
+  </si>
+  <si>
+    <t>mínimo 6</t>
+  </si>
+  <si>
+    <t>máximo 1</t>
+  </si>
+  <si>
+    <t>máximo 2</t>
+  </si>
+  <si>
     <t xml:space="preserve"> há no mínimo 3 meses</t>
   </si>
   <si>
@@ -74,6 +104,12 @@
     <t xml:space="preserve"> há no máximo 2 anos</t>
   </si>
   <si>
+    <t>mesma IES</t>
+  </si>
+  <si>
+    <t>outra IES</t>
+  </si>
+  <si>
     <t>Alunos cuja 1˚ graduação tenha sido na &lt;IES&gt;</t>
   </si>
   <si>
@@ -83,6 +119,9 @@
     <t>. Onde cada caso será avaliado internamente pela &lt;IES&gt;</t>
   </si>
   <si>
+    <t>Último</t>
+  </si>
+  <si>
     <t>O desconto é válido para pagamentos feitos até o 1º dia</t>
   </si>
   <si>
@@ -110,6 +149,30 @@
     <t>O desconto é válido para pagamentos feitos até o 15º dia</t>
   </si>
   <si>
+    <t>mensalidade</t>
+  </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>não-consecutivas</t>
+  </si>
+  <si>
+    <t>rendimento</t>
+  </si>
+  <si>
+    <t>Trancamento</t>
+  </si>
+  <si>
+    <t>FIES</t>
+  </si>
+  <si>
+    <t>ProUni</t>
+  </si>
+  <si>
+    <t>Não será</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 2 parcelas</t>
   </si>
   <si>
@@ -122,12 +185,24 @@
     <t>O desconto do Quero Bolsa não será cumulativo com outras bolsas/descontos</t>
   </si>
   <si>
+    <t xml:space="preserve">pontualidade e </t>
+  </si>
+  <si>
+    <t>pontualidade mas</t>
+  </si>
+  <si>
     <t>O desconto de pontualidade é cumulativo com o desconto do Quero bolsa</t>
   </si>
   <si>
     <t>O desconto de pontualidade não é cumulativo com o desconto do Quero bolsa</t>
   </si>
   <si>
+    <t>último</t>
+  </si>
+  <si>
+    <t>dia 25</t>
+  </si>
+  <si>
     <t>. Com vencimento no dia 25 do mês anterior</t>
   </si>
   <si>
@@ -149,6 +224,12 @@
     <t xml:space="preserve"> (corrido)</t>
   </si>
   <si>
+    <t>Sim e</t>
+  </si>
+  <si>
+    <t>Sim, mas</t>
+  </si>
+  <si>
     <t>O desconto do Quero Bolsa se aplica às taxas de matrícula e rematrícula</t>
   </si>
   <si>
@@ -158,6 +239,9 @@
     <t>Todas</t>
   </si>
   <si>
+    <t>exceto a 1</t>
+  </si>
+  <si>
     <t>O desconto do Quero Bolsa é válido para todas as mensalidades de cada semestre</t>
   </si>
   <si>
@@ -165,6 +249,9 @@
   </si>
   <si>
     <t>Rematrículas</t>
+  </si>
+  <si>
+    <t>vestibular</t>
   </si>
   <si>
     <t>O desconto do Quero Bolsa é válido para todas as mensalidades de cada semestre exceto a primeira</t>
@@ -206,121 +293,16 @@
 *    &lt;BULL&gt; Trancamento de matrícula</t>
   </si>
   <si>
+    <t>parcelas consecutivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anterior</t>
+  </si>
+  <si>
     <t>O desconto do Quero Bolsa pode ser cumulativo com o **FIES**</t>
   </si>
   <si>
     <t>O desconto do Quero Bolsa pode ser cumulativo com o **ProUni**</t>
-  </si>
-  <si>
-    <t>Ingressantes (padrão)</t>
-  </si>
-  <si>
-    <t>Já matriculados na IES (caso marque esta alternativa, responda também à pergunta 5)</t>
-  </si>
-  <si>
-    <t>Matriculados em outra IES, também conhecidos como "transferência externa" (caso marque esta alternativa, responda também à pergunta 6)</t>
-  </si>
-  <si>
-    <t>Trancados/Desistentes na IES (caso marque esta alternativa, responda também à pergunta 7)</t>
-  </si>
-  <si>
-    <t>qualquer um, desde que tenha cursado até metade do curso</t>
-  </si>
-  <si>
-    <t>todos</t>
-  </si>
-  <si>
-    <t>somente os que tenham cursado até metade do curso na IES de origem</t>
-  </si>
-  <si>
-    <t>cada caso será avaliado internamente pela IES</t>
-  </si>
-  <si>
-    <t>somente os trancados/desistentes há no mínimo 3 meses</t>
-  </si>
-  <si>
-    <t>somente os trancados/desitentes há no mínimo 6 meses</t>
-  </si>
-  <si>
-    <t>somente os trancados/desistentes há no máximo 1 ano</t>
-  </si>
-  <si>
-    <t>somente os trancados/desistentes há no máximo 2 anos</t>
-  </si>
-  <si>
-    <t>nenhum</t>
-  </si>
-  <si>
-    <t>alunos cuja 1a graduação foi na mesma IES (caso marque esta opção, responda a pergunta 9)</t>
-  </si>
-  <si>
-    <t>alunos cuja 1a graduação foi em outra IES (caso marque esta opção, responda a pergunta 10)</t>
-  </si>
-  <si>
-    <t>Último do mês anterior</t>
-  </si>
-  <si>
-    <t>na próxima mensalidade</t>
-  </si>
-  <si>
-    <t>no próximo semestre</t>
-  </si>
-  <si>
-    <t>Não trabalhamos com perda definitiva de desconto por motivos de inadimplência</t>
-  </si>
-  <si>
-    <t>Inadimplência de N parcelas consecutivas (coloque o valor de N na pergunta 15)</t>
-  </si>
-  <si>
-    <t>Inadimplência de N parcelas não-consecutivas dentro do mesmo semestre (coloque o valor de N na pergunta 15)</t>
-  </si>
-  <si>
-    <t>Não há</t>
-  </si>
-  <si>
-    <t>O aluno com rendimento insuficiente (por nota média mínima) no semestre</t>
-  </si>
-  <si>
-    <t>Trancamento de matrícula</t>
-  </si>
-  <si>
-    <t>O desconto do Quero Bolsa pode ser cumulativo com o FIES</t>
-  </si>
-  <si>
-    <t>O desconto do Quero Bolsa pode ser cumulativo com o ProUni</t>
-  </si>
-  <si>
-    <t>Não será cumulativo com outras bolsas/descontos não explicitadas nas opções anteriores</t>
-  </si>
-  <si>
-    <t>Não temos desconto de pontualidade</t>
-  </si>
-  <si>
-    <t>Temos desconto de pontualidade e a bolsa do Quero Bolsa É cumulativa com ele</t>
-  </si>
-  <si>
-    <t>Temos desconto de pontualidade mas a bolsa do Quero Bolsa NÃO É cumulativa com ele</t>
-  </si>
-  <si>
-    <t>último dia do mês anterior</t>
-  </si>
-  <si>
-    <t>dia 25 do mês anterior</t>
-  </si>
-  <si>
-    <t>Sim e o desconto do Quero Bolsa se aplica a essa taxa também</t>
-  </si>
-  <si>
-    <t>Sim, mas o desconto do Quero Bolsa não é válido para essa taxa</t>
-  </si>
-  <si>
-    <t>Não cobramos taxa adicional de matrícula/rematrícula</t>
-  </si>
-  <si>
-    <t>Todas exceto a 1ª (primeira) mensalidade</t>
-  </si>
-  <si>
-    <t>Dia do vestibular</t>
   </si>
 </sst>
 </file>
@@ -679,17 +661,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.83203125" style="1"/>
@@ -697,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -706,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -714,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -728,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
@@ -742,10 +724,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="D4" s="3">
         <v>6</v>
@@ -756,10 +738,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>7</v>
@@ -770,23 +752,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -795,37 +780,40 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -834,7 +822,10 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -845,253 +836,248 @@
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="3">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D22" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>9</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>10</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D30" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>11</v>
-      </c>
-      <c r="B31" s="1">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D31" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>11</v>
-      </c>
-      <c r="B32" s="1">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="D32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>11</v>
-      </c>
-      <c r="B33" s="1">
-        <v>15</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D34" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>12</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D37" s="3">
-        <v>0</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>13</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -1099,63 +1085,69 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>15</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>14</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D44" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="D45" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -1163,13 +1155,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -1177,220 +1169,209 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>15</v>
-      </c>
-      <c r="B49" s="1">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>15</v>
-      </c>
-      <c r="B50" s="1">
-        <v>4</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>16</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>17</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="B55" s="1">
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D55" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>17</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="B56" s="1">
+        <v>10</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>18</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>19</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="3">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D61" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>19</v>
-      </c>
-      <c r="B63" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D63" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>19</v>
-      </c>
-      <c r="B64" s="1">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D64" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>19</v>
-      </c>
-      <c r="B65" s="1">
-        <v>10</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D66" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D67" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -1398,124 +1379,29 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>22</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>22</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>22</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>23</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>23</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>24</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>24</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>24</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="3">
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D71" s="3">
         <v>0</v>
       </c>
     </row>
